--- a/data/trans_dic/P23_6_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_6_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios (tasa de respuesta: 99,4%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>6,12%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 11,42</t>
+          <t>1,66; 10,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,64</t>
+          <t>2,56; 10,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 8,69</t>
+          <t>0,99; 9,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 13,82</t>
+          <t>1,4; 10,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 7,44</t>
+          <t>2,8; 13,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,88</t>
+          <t>4,5; 16,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 11,1</t>
+          <t>0,67; 6,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,67</t>
+          <t>2,05; 8,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,6</t>
+          <t>3,06; 10,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,02</t>
+          <t>2,0; 9,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 7,98</t>
+          <t>2,46; 11,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 10,35</t>
+          <t>1,85; 9,43</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 6,82</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 7,59</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 7,92</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 8,04</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 9,91</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 11,29</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>3,19%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,5%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,34</t>
+          <t>0,55; 5,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 14,04</t>
+          <t>0,58; 15,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 3,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 16,1</t>
+          <t>4,54; 25,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,2</t>
+          <t>4,39; 16,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,8</t>
+          <t>6,43; 20,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,63</t>
+          <t>1,73; 7,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,27</t>
+          <t>1,45; 6,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,29</t>
+          <t>2,47; 8,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,54</t>
+          <t>2,21; 9,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,63</t>
+          <t>1,1; 7,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,93</t>
+          <t>2,58; 9,26</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 5,28</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 9,76</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 4,8</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 18,04</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 10,96</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,22; 13,16</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>10,22%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>2,77%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>4,23%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
         <is>
           <t>8,65%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>10,79%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,36</t>
+          <t>3,64; 9,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,56</t>
+          <t>0,96; 4,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,36</t>
+          <t>2,46; 7,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,96</t>
+          <t>4,53; 14,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,23</t>
+          <t>4,07; 11,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,79</t>
+          <t>8,71; 20,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,12</t>
+          <t>3,41; 8,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,15</t>
+          <t>1,75; 5,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,74</t>
+          <t>2,03; 5,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,19</t>
+          <t>2,67; 7,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,2</t>
+          <t>6,97; 14,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 11,49</t>
+          <t>4,39; 11,39</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 8,34</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 4,22</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 5,92</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 9,89</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 11,76</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 14,63</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>10,72%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,11%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,23%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>11,75%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6,76%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>7,22%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>11,21%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 12,77</t>
+          <t>3,63; 14,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,69</t>
+          <t>1,76; 5,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 10,29</t>
+          <t>3,6; 10,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,71</t>
+          <t>3,5; 9,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 11,05</t>
+          <t>6,94; 15,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 12,06</t>
+          <t>10,63; 20,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 11,31</t>
+          <t>4,7; 10,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 16,71</t>
+          <t>5,79; 11,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,01</t>
+          <t>5,79; 11,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,04</t>
+          <t>6,9; 13,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,81</t>
+          <t>8,29; 17,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 14,79</t>
+          <t>4,66; 11,31</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 10,61</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 7,89</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 9,85</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,71; 10,16</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 14,4</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 14,58</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>15,79%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7,58%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,39%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>7,42%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
         <is>
           <t>14,71%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,92</t>
+          <t>3,8; 10,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 11,81</t>
+          <t>3,03; 14,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,43</t>
+          <t>3,29; 8,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 19,97</t>
+          <t>5,52; 15,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,97</t>
+          <t>8,6; 20,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 12,33</t>
+          <t>11,98; 23,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 13,17</t>
+          <t>5,36; 13,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,94; 20,62</t>
+          <t>4,95; 12,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,1</t>
+          <t>5,84; 13,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,35</t>
+          <t>9,57; 20,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,05</t>
+          <t>11,24; 21,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,29; 18,83</t>
+          <t>14,31; 25,12</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,55; 10,61</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 10,47</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 10,14</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>8,58; 15,67</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 18,68</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 22,19</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18,87%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>13,87%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>7,57%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>7,74%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>12,98%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>12,92%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>12,52%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,8</t>
+          <t>1,76; 8,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 12,86</t>
+          <t>4,75; 12,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,69</t>
+          <t>4,14; 11,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,57; 18,73</t>
+          <t>2,54; 12,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 16,32</t>
+          <t>6,79; 18,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,18</t>
+          <t>5,81; 17,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,26</t>
+          <t>7,0; 18,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,89; 21,73</t>
+          <t>4,42; 11,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,66</t>
+          <t>5,49; 12,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,57</t>
+          <t>12,89; 26,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,74</t>
+          <t>8,13; 21,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,09</t>
+          <t>8,86; 19,71</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 12,2</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 10,53</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 10,73</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 17,72</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 18,34</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 16,54</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>9,73%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>6,66%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
+          <t>10,43%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>5,71%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
         <is>
           <t>10,08%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,89</t>
+          <t>3,94; 6,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,32</t>
+          <t>3,39; 6,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,11</t>
+          <t>3,75; 6,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,9</t>
+          <t>5,66; 10,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,21</t>
+          <t>8,05; 12,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,15</t>
+          <t>10,8; 15,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,06</t>
+          <t>5,68; 8,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,47; 12,6</t>
+          <t>4,72; 7,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,98</t>
+          <t>5,51; 8,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,28</t>
+          <t>8,02; 11,66</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 6,6</t>
+          <t>8,6; 12,92</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,82; 11,58</t>
+          <t>8,28; 11,73</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 7,26</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 6,29</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 6,71</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 10,34</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 11,6</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>10,05; 13,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios (tasa de respuesta: 99,4%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>24412</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28899</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19137</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20861</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3882</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12573</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23031</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30499</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20933</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>36985</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>51930</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>49636</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>41794</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4865</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5665</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8327; 50904</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13394; 53775</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5029; 47791</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6584; 47919</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1180; 5660</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1982; 7063</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3140; 30643</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10460; 41186</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15751; 54059</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9541; 44479</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>919; 4185</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>714; 3636</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>19101; 66032</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>31777; 78512</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>28193; 81132</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>21215; 76295</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2658; 7876</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3080; 9328</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11911</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23167</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6559</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>62472</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4498</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5669</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21753</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16974</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25465</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27575</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1493</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>33664</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>40141</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>32024</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>90047</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5991</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7962</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3136; 33460</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3221; 85952</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22353</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26182; 149262</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2189; 8424</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3151; 10048</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8890; 40050</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7338; 33398</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12773; 44243</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11169; 50256</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>513; 3482</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1188; 4260</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>18136; 57150</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16466; 103531</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18333; 53386</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>50549; 195088</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3307; 10592</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4960; 12501</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41221</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15915</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30533</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55800</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8477</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41238</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22801</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25434</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32706</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5511</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3959</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>82459</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>38716</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>55967</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>88506</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9842</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>12436</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24519; 65984</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6511; 30089</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16212; 50126</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30743; 98788</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2438; 6829</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5264; 12562</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24138; 63185</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12565; 40839</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14497; 40790</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19138; 53933</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3760; 8047</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2406; 6247</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>57772; 115146</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22909; 59036</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>37050; 81211</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>58407; 138058</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>7202; 13381</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8944; 16868</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>42630</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>21596</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39537</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>36649</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6119</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8397</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>48500</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56172</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>53742</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>64791</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6160</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>91130</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>77767</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>93279</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>101439</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>12280</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>12395</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23246; 93380</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11307; 37619</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22834; 66720</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22433; 58663</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3960; 8996</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6025; 11444</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31925; 73327</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38581; 78868</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>37794; 75494</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>45651; 91735</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4346; 9021</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2492; 6052</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>64795; 140107</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>57565; 103135</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>68971; 126800</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>74333; 132423</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>9343; 15767</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>9511; 16063</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>32872</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>28227</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27607</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>44689</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5865</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7706</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>44794</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>39199</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>46456</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>71132</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7663</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9045</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>77667</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>67425</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>74063</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>115821</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>13528</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>16751</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18627; 53639</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14863; 70874</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16093; 42016</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26674; 73190</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3735; 8699</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5349; 10377</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27278; 66872</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24344; 59826</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29749; 66704</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>48751; 102736</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5453; 10520</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6675; 11719</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>55479; 106033</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>45324; 102822</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>52541; 101295</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>85137; 155480</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>10336; 17179</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>13625; 20262</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>21682</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>39363</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>37257</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32512</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5074</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4489</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>75605</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>45999</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>55843</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>123071</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8675</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8671</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>97286</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>85362</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>93100</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>155584</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>13749</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>13159</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9081; 44921</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>23613; 61576</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>21285; 61093</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>13883; 69404</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2977; 8251</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2538; 7742</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>48837; 130898</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>27586; 69337</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>36656; 85640</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>84113; 170454</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5087; 13440</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5450; 12117</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>66585; 148112</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>61404; 118050</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>66662; 126836</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>111993; 212505</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>9330; 19507</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>9371; 17395</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>174729</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>157166</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>252983</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>28811</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>38619</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>244463</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>204175</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>237440</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>340208</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>31442</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>29751</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>419191</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>361341</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>398070</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>593191</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>60254</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>68369</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>133756; 232346</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>114781; 224207</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>127483; 212118</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>192143; 352568</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>23859; 35699</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>32231; 46358</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>202830; 312677</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>166120; 248812</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>197081; 289015</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>282698; 410765</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>25928; 38952</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24915; 35322</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>352728; 505835</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>301845; 434100</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>342443; 467826</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>510623; 715241</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>51556; 69323</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>60272; 78328</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
